--- a/data/trans_bre/CoPsoQ_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CoPsoQ_R2-Edad-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.625080095766115</v>
+        <v>-6.732899489535255</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.0770133441765</v>
+        <v>-7.333846775130653</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-31.93108841813165</v>
+        <v>-36.14843606191177</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.1079304402428025</v>
+        <v>-0.1146894083015762</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1341400175519071</v>
+        <v>-0.1240283519644172</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4842129099903108</v>
+        <v>-0.5082658528026366</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>24.42317766347759</v>
+        <v>25.79560874756015</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>23.36688601438674</v>
+        <v>23.22684061731384</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>41.76528749994197</v>
+        <v>40.90676150423065</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.6141247249077501</v>
+        <v>0.679974610564151</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.611740848209215</v>
+        <v>0.6057027578687266</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.557282409681712</v>
+        <v>1.723078311573253</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>-0.2164485698764818</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3.531613599969457</v>
+        <v>3.531613599969435</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.0761840157391017</v>
@@ -709,7 +709,7 @@
         <v>-0.003769635211131766</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08974217015119124</v>
+        <v>0.08974217015119067</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-12.66307839881787</v>
+        <v>-12.59343551799662</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-8.305289699469851</v>
+        <v>-8.663393181764153</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-12.71085386627379</v>
+        <v>-12.31285025378577</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2046663732582523</v>
+        <v>-0.1986490251165098</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1371277283934534</v>
+        <v>-0.1411154307849347</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2658611805559721</v>
+        <v>-0.2629471382359765</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.903684615736738</v>
+        <v>3.785967057503743</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.488104186186244</v>
+        <v>7.237522491987757</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18.56115335496614</v>
+        <v>18.56165763792168</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.06817957280139443</v>
+        <v>0.06915355231541363</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1402619083842466</v>
+        <v>0.1329735022216249</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6466983880774098</v>
+        <v>0.6028266108612632</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.58530401109801</v>
+        <v>-11.80226673309262</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.176212182750549</v>
+        <v>-8.40324224178444</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.9568159758847651</v>
+        <v>-1.028721296397481</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1828551371974223</v>
+        <v>-0.1817585528906522</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1372126982740432</v>
+        <v>-0.1417945882809862</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.02424955741492938</v>
+        <v>-0.0210955178314022</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.005832374695091</v>
+        <v>3.993798206607085</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.995789428659401</v>
+        <v>6.179062024079033</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22.91628708903041</v>
+        <v>23.0290082272497</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.07051433988039864</v>
+        <v>0.07306736685602469</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1112866899035698</v>
+        <v>0.1148479747181944</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7473870414288983</v>
+        <v>0.7285457044902451</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-14.73520172312315</v>
+        <v>-14.40488397599773</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.965011936828537</v>
+        <v>-7.522187027854022</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-7.25825697779086</v>
+        <v>-6.517277975034838</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2496097911023598</v>
+        <v>-0.2384829228860716</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1267531345728489</v>
+        <v>-0.1362428861758753</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1724752593448762</v>
+        <v>-0.155395909551764</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.075391138547356</v>
+        <v>3.435426702328921</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.32000540920212</v>
+        <v>9.91033370040609</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.88283644587919</v>
+        <v>13.96147110821619</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.05567680638317902</v>
+        <v>0.06426461304021613</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2271070478518955</v>
+        <v>0.2053950245593094</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5377193629629438</v>
+        <v>0.4571528959888027</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>-3.351780428784046</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9.501723173829307</v>
+        <v>9.50172317382928</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>-0.1600975682324658</v>
@@ -955,7 +955,7 @@
         <v>-0.06272636383754102</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2167411209001224</v>
+        <v>0.2167411209001218</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-25.29321183918962</v>
+        <v>-24.59647918139795</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-15.84374553588192</v>
+        <v>-17.02201319803684</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.043416485581037</v>
+        <v>-8.33154645050432</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.4107354736424721</v>
+        <v>-0.3991769358788331</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2677733147229726</v>
+        <v>-0.2909323389958329</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.131281959023063</v>
+        <v>-0.1615429625394318</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.590468374837193</v>
+        <v>5.851490684964134</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.10786030100086</v>
+        <v>10.81896026019175</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26.80704408326709</v>
+        <v>25.14691562733254</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.1227437541786743</v>
+        <v>0.1154830381263568</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.206604649863253</v>
+        <v>0.2246806447490938</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.772987242903916</v>
+        <v>0.7080981647808383</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.2357442505702356</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6.3661794668123</v>
+        <v>6.366179466812288</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.06777471889934621</v>
@@ -1037,7 +1037,7 @@
         <v>0.004292070805408203</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.160252083152017</v>
+        <v>0.1602520831520167</v>
       </c>
     </row>
     <row r="20">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-8.215108498362703</v>
+        <v>-8.225024960721125</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-3.941258483374591</v>
+        <v>-3.740798123975122</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.7155142489335851</v>
+        <v>-0.3613787506374521</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1378913046487514</v>
+        <v>-0.1361007181835698</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.07124214656327936</v>
+        <v>-0.06590403277502806</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.01821554182627939</v>
+        <v>-0.00845169572815351</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5593058686665126</v>
+        <v>0.6086087689168992</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.423639785174439</v>
+        <v>4.166076783199526</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13.26594891427784</v>
+        <v>13.06690687954064</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.009940844770087035</v>
+        <v>0.01108820930098998</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.08404160451827154</v>
+        <v>0.07774352291759361</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3715089493326593</v>
+        <v>0.35543349544348</v>
       </c>
     </row>
     <row r="22">
